--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.331266</v>
+        <v>32.7070105</v>
       </c>
       <c r="H2">
-        <v>76.662532</v>
+        <v>65.41402100000001</v>
       </c>
       <c r="I2">
-        <v>0.4891000815962888</v>
+        <v>0.6802841771997549</v>
       </c>
       <c r="J2">
-        <v>0.4239743808917552</v>
+        <v>0.6748705599218094</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.0547845</v>
+        <v>48.079174</v>
       </c>
       <c r="N2">
-        <v>66.10956899999999</v>
+        <v>96.158348</v>
       </c>
       <c r="O2">
-        <v>0.349784046669429</v>
+        <v>0.5539436387535981</v>
       </c>
       <c r="P2">
-        <v>0.2975652419422162</v>
+        <v>0.5511696311687838</v>
       </c>
       <c r="Q2">
-        <v>1267.031737242177</v>
+        <v>1572.526048849327</v>
       </c>
       <c r="R2">
-        <v>5068.126948968707</v>
+        <v>6290.104195397309</v>
       </c>
       <c r="S2">
-        <v>0.1710794057670978</v>
+        <v>0.3768390925045297</v>
       </c>
       <c r="T2">
-        <v>0.1261600392273565</v>
+        <v>0.3719681575987743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.331266</v>
+        <v>32.7070105</v>
       </c>
       <c r="H3">
-        <v>76.662532</v>
+        <v>65.41402100000001</v>
       </c>
       <c r="I3">
-        <v>0.4891000815962888</v>
+        <v>0.6802841771997549</v>
       </c>
       <c r="J3">
-        <v>0.4239743808917552</v>
+        <v>0.6748705599218094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6058403333333333</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N3">
         <v>1.817521</v>
       </c>
       <c r="O3">
-        <v>0.00641097156234339</v>
+        <v>0.006980182287456924</v>
       </c>
       <c r="P3">
-        <v>0.008180828952311864</v>
+        <v>0.01041784098881898</v>
       </c>
       <c r="Q3">
-        <v>23.22262697052867</v>
+        <v>19.81522614365684</v>
       </c>
       <c r="R3">
-        <v>139.335761823172</v>
+        <v>118.891356861941</v>
       </c>
       <c r="S3">
-        <v>0.003135606714253639</v>
+        <v>0.004748507564126937</v>
       </c>
       <c r="T3">
-        <v>0.003468461890237768</v>
+        <v>0.007030694181300639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.331266</v>
+        <v>32.7070105</v>
       </c>
       <c r="H4">
-        <v>76.662532</v>
+        <v>65.41402100000001</v>
       </c>
       <c r="I4">
-        <v>0.4891000815962888</v>
+        <v>0.6802841771997549</v>
       </c>
       <c r="J4">
-        <v>0.4239743808917552</v>
+        <v>0.6748705599218094</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1342126666666667</v>
+        <v>37.841506</v>
       </c>
       <c r="N4">
-        <v>0.402638</v>
+        <v>75.68301199999999</v>
       </c>
       <c r="O4">
-        <v>0.001420231605532381</v>
+        <v>0.4359904670898903</v>
       </c>
       <c r="P4">
-        <v>0.001812310618529824</v>
+        <v>0.4338071387185503</v>
       </c>
       <c r="Q4">
-        <v>5.144541426569334</v>
+        <v>1237.682534077813</v>
       </c>
       <c r="R4">
-        <v>30.867248559416</v>
+        <v>4950.730136311252</v>
       </c>
       <c r="S4">
-        <v>0.0006946353941515158</v>
+        <v>0.2965974161711828</v>
       </c>
       <c r="T4">
-        <v>0.000768373272474736</v>
+        <v>0.2927636666050661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.331266</v>
+        <v>32.7070105</v>
       </c>
       <c r="H5">
-        <v>76.662532</v>
+        <v>65.41402100000001</v>
       </c>
       <c r="I5">
-        <v>0.4891000815962888</v>
+        <v>0.6802841771997549</v>
       </c>
       <c r="J5">
-        <v>0.4239743808917552</v>
+        <v>0.6748705599218094</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.278546</v>
+        <v>0.2497153333333333</v>
       </c>
       <c r="N5">
-        <v>56.557092</v>
+        <v>0.749146</v>
       </c>
       <c r="O5">
-        <v>0.2992421340338066</v>
+        <v>0.002877092281145144</v>
       </c>
       <c r="P5">
-        <v>0.2545686656122079</v>
+        <v>0.004294026812020207</v>
       </c>
       <c r="Q5">
-        <v>1083.952468819236</v>
+        <v>8.167442029344333</v>
       </c>
       <c r="R5">
-        <v>4335.809875276944</v>
+        <v>49.004652176066</v>
       </c>
       <c r="S5">
-        <v>0.1463593521729824</v>
+        <v>0.001957240355206591</v>
       </c>
       <c r="T5">
-        <v>0.1079305923973761</v>
+        <v>0.00289791227894734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,108 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.331266</v>
+        <v>32.7070105</v>
       </c>
       <c r="H6">
-        <v>76.662532</v>
+        <v>65.41402100000001</v>
       </c>
       <c r="I6">
-        <v>0.4891000815962888</v>
+        <v>0.6802841771997549</v>
       </c>
       <c r="J6">
-        <v>0.4239743808917552</v>
+        <v>0.6748705599218094</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>32.282008</v>
+        <v>0.018107</v>
       </c>
       <c r="N6">
-        <v>96.84602400000001</v>
+        <v>0.054321</v>
       </c>
       <c r="O6">
-        <v>0.3416065650905962</v>
+        <v>0.0002086195879095469</v>
       </c>
       <c r="P6">
-        <v>0.435912848905454</v>
+        <v>0.000311362311826733</v>
       </c>
       <c r="Q6">
-        <v>1237.410235662128</v>
+        <v>0.5922258391235001</v>
       </c>
       <c r="R6">
-        <v>7424.461413972769</v>
+        <v>3.553355034741001</v>
       </c>
       <c r="S6">
-        <v>0.1670797988596386</v>
+        <v>0.000141920604708798</v>
       </c>
       <c r="T6">
-        <v>0.1848158802374511</v>
+        <v>0.0002101292577210563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.331266</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H7">
-        <v>76.662532</v>
+        <v>0.607664</v>
       </c>
       <c r="I7">
-        <v>0.4891000815962888</v>
+        <v>0.004213003042613874</v>
       </c>
       <c r="J7">
-        <v>0.4239743808917552</v>
+        <v>0.006269214728816723</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1451576666666667</v>
+        <v>48.079174</v>
       </c>
       <c r="N7">
-        <v>0.435473</v>
+        <v>96.158348</v>
       </c>
       <c r="O7">
-        <v>0.001536051038292467</v>
+        <v>0.5539436387535981</v>
       </c>
       <c r="P7">
-        <v>0.001960103969280192</v>
+        <v>0.5511696311687838</v>
       </c>
       <c r="Q7">
-        <v>5.564077132939333</v>
+        <v>9.738661063178666</v>
       </c>
       <c r="R7">
-        <v>33.384462797636</v>
+        <v>58.431966379072</v>
       </c>
       <c r="S7">
-        <v>0.0007512826881649099</v>
+        <v>0.002333766235505509</v>
       </c>
       <c r="T7">
-        <v>0.0008310338668590413</v>
+        <v>0.00345540076979982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.607664</v>
       </c>
       <c r="I8">
-        <v>0.002584561229842389</v>
+        <v>0.004213003042613874</v>
       </c>
       <c r="J8">
-        <v>0.00336062430328035</v>
+        <v>0.006269214728816723</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.0547845</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N8">
-        <v>66.10956899999999</v>
+        <v>1.817521</v>
       </c>
       <c r="O8">
-        <v>0.349784046669429</v>
+        <v>0.006980182287456924</v>
       </c>
       <c r="P8">
-        <v>0.2975652419422162</v>
+        <v>0.01041784098881898</v>
       </c>
       <c r="Q8">
-        <v>6.695400856135999</v>
+        <v>0.1227157867715556</v>
       </c>
       <c r="R8">
-        <v>40.172405136816</v>
+        <v>1.104442080944</v>
       </c>
       <c r="S8">
-        <v>0.000904038285839187</v>
+        <v>2.940752921505549E-05</v>
       </c>
       <c r="T8">
-        <v>0.001000004983882509</v>
+        <v>6.531168216957449E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>0.607664</v>
       </c>
       <c r="I9">
-        <v>0.002584561229842389</v>
+        <v>0.004213003042613874</v>
       </c>
       <c r="J9">
-        <v>0.00336062430328035</v>
+        <v>0.006269214728816723</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6058403333333333</v>
+        <v>37.841506</v>
       </c>
       <c r="N9">
-        <v>1.817521</v>
+        <v>75.68301199999999</v>
       </c>
       <c r="O9">
-        <v>0.00641097156234339</v>
+        <v>0.4359904670898903</v>
       </c>
       <c r="P9">
-        <v>0.008180828952311864</v>
+        <v>0.4338071387185503</v>
       </c>
       <c r="Q9">
-        <v>0.1227157867715555</v>
+        <v>7.664973633994665</v>
       </c>
       <c r="R9">
-        <v>1.104442080944</v>
+        <v>45.98984180396799</v>
       </c>
       <c r="S9">
-        <v>1.656954854565482E-05</v>
+        <v>0.001836829164400352</v>
       </c>
       <c r="T9">
-        <v>2.749269259811877E-05</v>
+        <v>0.002719630103520175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.607664</v>
       </c>
       <c r="I10">
-        <v>0.002584561229842389</v>
+        <v>0.004213003042613874</v>
       </c>
       <c r="J10">
-        <v>0.00336062430328035</v>
+        <v>0.006269214728816723</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1342126666666667</v>
+        <v>0.2497153333333333</v>
       </c>
       <c r="N10">
-        <v>0.402638</v>
+        <v>0.749146</v>
       </c>
       <c r="O10">
-        <v>0.001420231605532381</v>
+        <v>0.002877092281145144</v>
       </c>
       <c r="P10">
-        <v>0.001812310618529824</v>
+        <v>0.004294026812020207</v>
       </c>
       <c r="Q10">
-        <v>0.02718540195911111</v>
+        <v>0.05058100610488889</v>
       </c>
       <c r="R10">
-        <v>0.244668617632</v>
+        <v>0.455229054944</v>
       </c>
       <c r="S10">
-        <v>3.670675545055801E-06</v>
+        <v>1.212119853434538E-05</v>
       </c>
       <c r="T10">
-        <v>6.090495109724369E-06</v>
+        <v>2.6920176135851E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>0.607664</v>
       </c>
       <c r="I11">
-        <v>0.002584561229842389</v>
+        <v>0.004213003042613874</v>
       </c>
       <c r="J11">
-        <v>0.00336062430328035</v>
+        <v>0.006269214728816723</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>28.278546</v>
+        <v>0.018107</v>
       </c>
       <c r="N11">
-        <v>56.557092</v>
+        <v>0.054321</v>
       </c>
       <c r="O11">
-        <v>0.2992421340338066</v>
+        <v>0.0002086195879095469</v>
       </c>
       <c r="P11">
-        <v>0.2545686656122079</v>
+        <v>0.000311362311826733</v>
       </c>
       <c r="Q11">
-        <v>5.727951458848</v>
+        <v>0.003667657349333333</v>
       </c>
       <c r="R11">
-        <v>34.367708753088</v>
+        <v>0.033008916144</v>
       </c>
       <c r="S11">
-        <v>0.0007734096179590762</v>
+        <v>8.789149586117736E-07</v>
       </c>
       <c r="T11">
-        <v>0.0008555096445100344</v>
+        <v>1.951997191302579E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2025546666666667</v>
+        <v>0.147378</v>
       </c>
       <c r="H12">
-        <v>0.607664</v>
+        <v>0.442134</v>
       </c>
       <c r="I12">
-        <v>0.002584561229842389</v>
+        <v>0.003065364884612291</v>
       </c>
       <c r="J12">
-        <v>0.00336062430328035</v>
+        <v>0.004561456635427889</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.282008</v>
+        <v>48.079174</v>
       </c>
       <c r="N12">
-        <v>96.84602400000001</v>
+        <v>96.158348</v>
       </c>
       <c r="O12">
-        <v>0.3416065650905962</v>
+        <v>0.5539436387535981</v>
       </c>
       <c r="P12">
-        <v>0.435912848905454</v>
+        <v>0.5511696311687838</v>
       </c>
       <c r="Q12">
-        <v>6.538871369770668</v>
+        <v>7.085812505772001</v>
       </c>
       <c r="R12">
-        <v>58.84984232793601</v>
+        <v>42.51487503463201</v>
       </c>
       <c r="S12">
-        <v>0.0008829030839927855</v>
+        <v>0.001698039378289636</v>
       </c>
       <c r="T12">
-        <v>0.001464939314143844</v>
+        <v>0.002514136371341191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2025546666666667</v>
+        <v>0.147378</v>
       </c>
       <c r="H13">
-        <v>0.607664</v>
+        <v>0.442134</v>
       </c>
       <c r="I13">
-        <v>0.002584561229842389</v>
+        <v>0.003065364884612291</v>
       </c>
       <c r="J13">
-        <v>0.00336062430328035</v>
+        <v>0.004561456635427889</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1451576666666667</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N13">
-        <v>0.435473</v>
+        <v>1.817521</v>
       </c>
       <c r="O13">
-        <v>0.001536051038292467</v>
+        <v>0.006980182287456924</v>
       </c>
       <c r="P13">
-        <v>0.001960103969280192</v>
+        <v>0.01041784098881898</v>
       </c>
       <c r="Q13">
-        <v>0.02940236278577777</v>
+        <v>0.08928753664600002</v>
       </c>
       <c r="R13">
-        <v>0.264621265072</v>
+        <v>0.8035878298140001</v>
       </c>
       <c r="S13">
-        <v>3.970017960629857E-06</v>
+        <v>2.139680567216315E-05</v>
       </c>
       <c r="T13">
-        <v>6.587173036119293E-06</v>
+        <v>4.752052990528096E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1497786666666667</v>
+        <v>0.147378</v>
       </c>
       <c r="H14">
-        <v>0.449336</v>
+        <v>0.442134</v>
       </c>
       <c r="I14">
-        <v>0.001911148932259373</v>
+        <v>0.003065364884612291</v>
       </c>
       <c r="J14">
-        <v>0.00248500730986002</v>
+        <v>0.004561456635427889</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.0547845</v>
+        <v>37.841506</v>
       </c>
       <c r="N14">
-        <v>66.10956899999999</v>
+        <v>75.68301199999999</v>
       </c>
       <c r="O14">
-        <v>0.349784046669429</v>
+        <v>0.4359904670898903</v>
       </c>
       <c r="P14">
-        <v>0.2975652419422162</v>
+        <v>0.4338071387185503</v>
       </c>
       <c r="Q14">
-        <v>4.950901549364</v>
+        <v>5.577005471268</v>
       </c>
       <c r="R14">
-        <v>29.705409296184</v>
+        <v>33.462032827608</v>
       </c>
       <c r="S14">
-        <v>0.000668489407313642</v>
+        <v>0.00133646986784306</v>
       </c>
       <c r="T14">
-        <v>0.0007394518013866728</v>
+        <v>0.001978792451403718</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1497786666666667</v>
+        <v>0.147378</v>
       </c>
       <c r="H15">
-        <v>0.449336</v>
+        <v>0.442134</v>
       </c>
       <c r="I15">
-        <v>0.001911148932259373</v>
+        <v>0.003065364884612291</v>
       </c>
       <c r="J15">
-        <v>0.00248500730986002</v>
+        <v>0.004561456635427889</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6058403333333333</v>
+        <v>0.2497153333333333</v>
       </c>
       <c r="N15">
-        <v>1.817521</v>
+        <v>0.749146</v>
       </c>
       <c r="O15">
-        <v>0.00641097156234339</v>
+        <v>0.002877092281145144</v>
       </c>
       <c r="P15">
-        <v>0.008180828952311864</v>
+        <v>0.004294026812020207</v>
       </c>
       <c r="Q15">
-        <v>0.09074195733955555</v>
+        <v>0.036802546396</v>
       </c>
       <c r="R15">
-        <v>0.816677616056</v>
+        <v>0.331222917564</v>
       </c>
       <c r="S15">
-        <v>1.225232145611778E-05</v>
+        <v>8.819337648411397E-06</v>
       </c>
       <c r="T15">
-        <v>2.032941974720947E-05</v>
+        <v>1.958701709439484E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1497786666666667</v>
+        <v>0.147378</v>
       </c>
       <c r="H16">
-        <v>0.449336</v>
+        <v>0.442134</v>
       </c>
       <c r="I16">
-        <v>0.001911148932259373</v>
+        <v>0.003065364884612291</v>
       </c>
       <c r="J16">
-        <v>0.00248500730986002</v>
+        <v>0.004561456635427889</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1342126666666667</v>
+        <v>0.018107</v>
       </c>
       <c r="N16">
-        <v>0.402638</v>
+        <v>0.054321</v>
       </c>
       <c r="O16">
-        <v>0.001420231605532381</v>
+        <v>0.0002086195879095469</v>
       </c>
       <c r="P16">
-        <v>0.001812310618529824</v>
+        <v>0.000311362311826733</v>
       </c>
       <c r="Q16">
-        <v>0.02010219426311111</v>
+        <v>0.002668573446</v>
       </c>
       <c r="R16">
-        <v>0.180919748368</v>
+        <v>0.024017161014</v>
       </c>
       <c r="S16">
-        <v>2.714274116474225E-06</v>
+        <v>6.394951590202118E-07</v>
       </c>
       <c r="T16">
-        <v>4.503605134783547E-06</v>
+        <v>1.420265683304219E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1497786666666667</v>
+        <v>14.600099</v>
       </c>
       <c r="H17">
-        <v>0.449336</v>
+        <v>29.200198</v>
       </c>
       <c r="I17">
-        <v>0.001911148932259373</v>
+        <v>0.3036723987736502</v>
       </c>
       <c r="J17">
-        <v>0.00248500730986002</v>
+        <v>0.3012558114121696</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.278546</v>
+        <v>48.079174</v>
       </c>
       <c r="N17">
-        <v>56.557092</v>
+        <v>96.158348</v>
       </c>
       <c r="O17">
-        <v>0.2992421340338066</v>
+        <v>0.5539436387535981</v>
       </c>
       <c r="P17">
-        <v>0.2545686656122079</v>
+        <v>0.5511696311687838</v>
       </c>
       <c r="Q17">
-        <v>4.235522915152</v>
+        <v>701.9607002382261</v>
       </c>
       <c r="R17">
-        <v>25.413137490912</v>
+        <v>2807.842800952904</v>
       </c>
       <c r="S17">
-        <v>0.0005718962849457258</v>
+        <v>0.1682173935657095</v>
       </c>
       <c r="T17">
-        <v>0.0006326049949076476</v>
+        <v>0.1660430544634982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1497786666666667</v>
+        <v>14.600099</v>
       </c>
       <c r="H18">
-        <v>0.449336</v>
+        <v>29.200198</v>
       </c>
       <c r="I18">
-        <v>0.001911148932259373</v>
+        <v>0.3036723987736502</v>
       </c>
       <c r="J18">
-        <v>0.00248500730986002</v>
+        <v>0.3012558114121696</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.282008</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N18">
-        <v>96.84602400000001</v>
+        <v>1.817521</v>
       </c>
       <c r="O18">
-        <v>0.3416065650905962</v>
+        <v>0.006980182287456924</v>
       </c>
       <c r="P18">
-        <v>0.435912848905454</v>
+        <v>0.01041784098881898</v>
       </c>
       <c r="Q18">
-        <v>4.835156115562667</v>
+        <v>8.845328844859669</v>
       </c>
       <c r="R18">
-        <v>43.51640504006401</v>
+        <v>53.07197306915801</v>
       </c>
       <c r="S18">
-        <v>0.0006528610221256851</v>
+        <v>0.002119688699109389</v>
       </c>
       <c r="T18">
-        <v>0.00108324661599196</v>
+        <v>0.003138435140249619</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1497786666666667</v>
+        <v>14.600099</v>
       </c>
       <c r="H19">
-        <v>0.449336</v>
+        <v>29.200198</v>
       </c>
       <c r="I19">
-        <v>0.001911148932259373</v>
+        <v>0.3036723987736502</v>
       </c>
       <c r="J19">
-        <v>0.00248500730986002</v>
+        <v>0.3012558114121696</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1451576666666667</v>
+        <v>37.841506</v>
       </c>
       <c r="N19">
-        <v>0.435473</v>
+        <v>75.68301199999999</v>
       </c>
       <c r="O19">
-        <v>0.001536051038292467</v>
+        <v>0.4359904670898903</v>
       </c>
       <c r="P19">
-        <v>0.001960103969280192</v>
+        <v>0.4338071387185503</v>
       </c>
       <c r="Q19">
-        <v>0.02174152176977778</v>
+        <v>552.489733909094</v>
       </c>
       <c r="R19">
-        <v>0.195673695928</v>
+        <v>2209.958935636376</v>
       </c>
       <c r="S19">
-        <v>2.93562230172855E-06</v>
+        <v>0.1323982709836312</v>
       </c>
       <c r="T19">
-        <v>4.870872691746917E-06</v>
+        <v>0.1306869215710485</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.9629715</v>
+        <v>14.600099</v>
       </c>
       <c r="H20">
-        <v>31.925943</v>
+        <v>29.200198</v>
       </c>
       <c r="I20">
-        <v>0.2036846542759436</v>
+        <v>0.3036723987736502</v>
       </c>
       <c r="J20">
-        <v>0.176563199318938</v>
+        <v>0.3012558114121696</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>33.0547845</v>
+        <v>0.2497153333333333</v>
       </c>
       <c r="N20">
-        <v>66.10956899999999</v>
+        <v>0.749146</v>
       </c>
       <c r="O20">
-        <v>0.349784046669429</v>
+        <v>0.002877092281145144</v>
       </c>
       <c r="P20">
-        <v>0.2975652419422162</v>
+        <v>0.004294026812020207</v>
       </c>
       <c r="Q20">
-        <v>527.6525829121416</v>
+        <v>3.645868588484666</v>
       </c>
       <c r="R20">
-        <v>2110.610331648566</v>
+        <v>21.875211530908</v>
       </c>
       <c r="S20">
-        <v>0.07124564261710317</v>
+        <v>0.0008736935145084992</v>
       </c>
       <c r="T20">
-        <v>0.05253907112343153</v>
+        <v>0.001293600531480759</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.9629715</v>
+        <v>14.600099</v>
       </c>
       <c r="H21">
-        <v>31.925943</v>
+        <v>29.200198</v>
       </c>
       <c r="I21">
-        <v>0.2036846542759436</v>
+        <v>0.3036723987736502</v>
       </c>
       <c r="J21">
-        <v>0.176563199318938</v>
+        <v>0.3012558114121696</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.6058403333333333</v>
+        <v>0.018107</v>
       </c>
       <c r="N21">
-        <v>1.817521</v>
+        <v>0.054321</v>
       </c>
       <c r="O21">
-        <v>0.00641097156234339</v>
+        <v>0.0002086195879095469</v>
       </c>
       <c r="P21">
-        <v>0.008180828952311864</v>
+        <v>0.000311362311826733</v>
       </c>
       <c r="Q21">
-        <v>9.671011974550499</v>
+        <v>0.264363992593</v>
       </c>
       <c r="R21">
-        <v>58.02607184730299</v>
+        <v>1.586183955558</v>
       </c>
       <c r="S21">
-        <v>0.001305816526248819</v>
+        <v>6.335201069166249E-05</v>
       </c>
       <c r="T21">
-        <v>0.001444433332901178</v>
+        <v>9.37997058925314E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.9629715</v>
+        <v>0.196838</v>
       </c>
       <c r="H22">
-        <v>31.925943</v>
+        <v>0.590514</v>
       </c>
       <c r="I22">
-        <v>0.2036846542759436</v>
+        <v>0.004094100158485757</v>
       </c>
       <c r="J22">
-        <v>0.176563199318938</v>
+        <v>0.006092279724276044</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1342126666666667</v>
+        <v>48.079174</v>
       </c>
       <c r="N22">
-        <v>0.402638</v>
+        <v>96.158348</v>
       </c>
       <c r="O22">
-        <v>0.001420231605532381</v>
+        <v>0.5539436387535981</v>
       </c>
       <c r="P22">
-        <v>0.001812310618529824</v>
+        <v>0.5511696311687838</v>
       </c>
       <c r="Q22">
-        <v>2.142432972939</v>
+        <v>9.463808451812</v>
       </c>
       <c r="R22">
-        <v>12.854597837634</v>
+        <v>56.782850710872</v>
       </c>
       <c r="S22">
-        <v>0.0002892793835646313</v>
+        <v>0.002267900739213283</v>
       </c>
       <c r="T22">
-        <v>0.0003199873609673091</v>
+        <v>0.003357879568606287</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.9629715</v>
+        <v>0.196838</v>
       </c>
       <c r="H23">
-        <v>31.925943</v>
+        <v>0.590514</v>
       </c>
       <c r="I23">
-        <v>0.2036846542759436</v>
+        <v>0.004094100158485757</v>
       </c>
       <c r="J23">
-        <v>0.176563199318938</v>
+        <v>0.006092279724276044</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>28.278546</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N23">
-        <v>56.557092</v>
+        <v>1.817521</v>
       </c>
       <c r="O23">
-        <v>0.2992421340338066</v>
+        <v>0.006980182287456924</v>
       </c>
       <c r="P23">
-        <v>0.2545686656122079</v>
+        <v>0.01041784098881898</v>
       </c>
       <c r="Q23">
-        <v>451.4096238594389</v>
+        <v>0.1192523995326667</v>
       </c>
       <c r="R23">
-        <v>1805.638495437756</v>
+        <v>1.073271595794</v>
       </c>
       <c r="S23">
-        <v>0.06095103061547148</v>
+        <v>2.857756540933687E-05</v>
       </c>
       <c r="T23">
-        <v>0.04494745804684434</v>
+        <v>6.346840142691373E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.196838</v>
+      </c>
+      <c r="H24">
+        <v>0.590514</v>
+      </c>
+      <c r="I24">
+        <v>0.004094100158485757</v>
+      </c>
+      <c r="J24">
+        <v>0.006092279724276044</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>15.9629715</v>
-      </c>
-      <c r="H24">
-        <v>31.925943</v>
-      </c>
-      <c r="I24">
-        <v>0.2036846542759436</v>
-      </c>
-      <c r="J24">
-        <v>0.176563199318938</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.282008</v>
+        <v>37.841506</v>
       </c>
       <c r="N24">
-        <v>96.84602400000001</v>
+        <v>75.68301199999999</v>
       </c>
       <c r="O24">
-        <v>0.3416065650905962</v>
+        <v>0.4359904670898903</v>
       </c>
       <c r="P24">
-        <v>0.435912848905454</v>
+        <v>0.4338071387185503</v>
       </c>
       <c r="Q24">
-        <v>515.3167736667721</v>
+        <v>7.448646358027998</v>
       </c>
       <c r="R24">
-        <v>3091.900642000632</v>
+        <v>44.69187814816799</v>
       </c>
       <c r="S24">
-        <v>0.06958001510887073</v>
+        <v>0.001784988640410999</v>
       </c>
       <c r="T24">
-        <v>0.07696616722697977</v>
+        <v>0.002642874435461229</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.9629715</v>
+        <v>0.196838</v>
       </c>
       <c r="H25">
-        <v>31.925943</v>
+        <v>0.590514</v>
       </c>
       <c r="I25">
-        <v>0.2036846542759436</v>
+        <v>0.004094100158485757</v>
       </c>
       <c r="J25">
-        <v>0.176563199318938</v>
+        <v>0.006092279724276044</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1451576666666667</v>
+        <v>0.2497153333333333</v>
       </c>
       <c r="N25">
-        <v>0.435473</v>
+        <v>0.749146</v>
       </c>
       <c r="O25">
-        <v>0.001536051038292467</v>
+        <v>0.002877092281145144</v>
       </c>
       <c r="P25">
-        <v>0.001960103969280192</v>
+        <v>0.004294026812020207</v>
       </c>
       <c r="Q25">
-        <v>2.317147696006499</v>
+        <v>0.04915346678266666</v>
       </c>
       <c r="R25">
-        <v>13.902886176039</v>
+        <v>0.442381201044</v>
       </c>
       <c r="S25">
-        <v>0.0003128700246848054</v>
+        <v>1.177910396421449E-05</v>
       </c>
       <c r="T25">
-        <v>0.0003460822278138601</v>
+        <v>2.616041248236841E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.40508</v>
+        <v>0.196838</v>
       </c>
       <c r="H26">
-        <v>70.21523999999999</v>
+        <v>0.590514</v>
       </c>
       <c r="I26">
-        <v>0.2986446244109878</v>
+        <v>0.004094100158485757</v>
       </c>
       <c r="J26">
-        <v>0.3883182844543407</v>
+        <v>0.006092279724276044</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>33.0547845</v>
+        <v>0.018107</v>
       </c>
       <c r="N26">
-        <v>66.10956899999999</v>
+        <v>0.054321</v>
       </c>
       <c r="O26">
-        <v>0.349784046669429</v>
+        <v>0.0002086195879095469</v>
       </c>
       <c r="P26">
-        <v>0.2975652419422162</v>
+        <v>0.000311362311826733</v>
       </c>
       <c r="Q26">
-        <v>773.6498756052598</v>
+        <v>0.003564145666</v>
       </c>
       <c r="R26">
-        <v>4641.899253631559</v>
+        <v>0.032077310994</v>
       </c>
       <c r="S26">
-        <v>0.1044611252425471</v>
+        <v>8.541094879237092E-07</v>
       </c>
       <c r="T26">
-        <v>0.1155500242642422</v>
+        <v>1.89690629924572E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.40508</v>
+        <v>0.2245723333333334</v>
       </c>
       <c r="H27">
-        <v>70.21523999999999</v>
+        <v>0.6737170000000001</v>
       </c>
       <c r="I27">
-        <v>0.2986446244109878</v>
+        <v>0.004670955940882942</v>
       </c>
       <c r="J27">
-        <v>0.3883182844543407</v>
+        <v>0.006950677577500422</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.6058403333333333</v>
+        <v>48.079174</v>
       </c>
       <c r="N27">
-        <v>1.817521</v>
+        <v>96.158348</v>
       </c>
       <c r="O27">
-        <v>0.00641097156234339</v>
+        <v>0.5539436387535981</v>
       </c>
       <c r="P27">
-        <v>0.008180828952311864</v>
+        <v>0.5511696311687838</v>
       </c>
       <c r="Q27">
-        <v>14.17974146889333</v>
+        <v>10.79725228991934</v>
       </c>
       <c r="R27">
-        <v>127.61767322004</v>
+        <v>64.78351373951601</v>
       </c>
       <c r="S27">
-        <v>0.001914602194345566</v>
+        <v>0.002587446330350433</v>
       </c>
       <c r="T27">
-        <v>0.003176765464176145</v>
+        <v>0.003831002396764044</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.40508</v>
+        <v>0.2245723333333334</v>
       </c>
       <c r="H28">
-        <v>70.21523999999999</v>
+        <v>0.6737170000000001</v>
       </c>
       <c r="I28">
-        <v>0.2986446244109878</v>
+        <v>0.004670955940882942</v>
       </c>
       <c r="J28">
-        <v>0.3883182844543407</v>
+        <v>0.006950677577500422</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1342126666666667</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N28">
-        <v>0.402638</v>
+        <v>1.817521</v>
       </c>
       <c r="O28">
-        <v>0.001420231605532381</v>
+        <v>0.006980182287456924</v>
       </c>
       <c r="P28">
-        <v>0.001812310618529824</v>
+        <v>0.01041784098881898</v>
       </c>
       <c r="Q28">
-        <v>3.141258200346666</v>
+        <v>0.1360549772841111</v>
       </c>
       <c r="R28">
-        <v>28.27132380312</v>
+        <v>1.224494795557</v>
       </c>
       <c r="S28">
-        <v>0.0004241445344108321</v>
+        <v>3.26041239240428E-05</v>
       </c>
       <c r="T28">
-        <v>0.0007037533502858863</v>
+        <v>7.241105376694888E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.40508</v>
+        <v>0.2245723333333334</v>
       </c>
       <c r="H29">
-        <v>70.21523999999999</v>
+        <v>0.6737170000000001</v>
       </c>
       <c r="I29">
-        <v>0.2986446244109878</v>
+        <v>0.004670955940882942</v>
       </c>
       <c r="J29">
-        <v>0.3883182844543407</v>
+        <v>0.006950677577500422</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>28.278546</v>
+        <v>37.841506</v>
       </c>
       <c r="N29">
-        <v>56.557092</v>
+        <v>75.68301199999999</v>
       </c>
       <c r="O29">
-        <v>0.2992421340338066</v>
+        <v>0.4359904670898903</v>
       </c>
       <c r="P29">
-        <v>0.2545686656122079</v>
+        <v>0.4338071387185503</v>
       </c>
       <c r="Q29">
-        <v>661.8616314136799</v>
+        <v>8.498155299267333</v>
       </c>
       <c r="R29">
-        <v>3971.16978848208</v>
+        <v>50.988931795604</v>
       </c>
       <c r="S29">
-        <v>0.08936705472646865</v>
+        <v>0.002036492262421852</v>
       </c>
       <c r="T29">
-        <v>0.09885366750636329</v>
+        <v>0.003015253552050643</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.40508</v>
+        <v>0.2245723333333334</v>
       </c>
       <c r="H30">
-        <v>70.21523999999999</v>
+        <v>0.6737170000000001</v>
       </c>
       <c r="I30">
-        <v>0.2986446244109878</v>
+        <v>0.004670955940882942</v>
       </c>
       <c r="J30">
-        <v>0.3883182844543407</v>
+        <v>0.006950677577500422</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>32.282008</v>
+        <v>0.2497153333333333</v>
       </c>
       <c r="N30">
-        <v>96.84602400000001</v>
+        <v>0.749146</v>
       </c>
       <c r="O30">
-        <v>0.3416065650905962</v>
+        <v>0.002877092281145144</v>
       </c>
       <c r="P30">
-        <v>0.435912848905454</v>
+        <v>0.004294026812020207</v>
       </c>
       <c r="Q30">
-        <v>755.5629798006401</v>
+        <v>0.05607915507577779</v>
       </c>
       <c r="R30">
-        <v>6800.066818205761</v>
+        <v>0.5047123956820001</v>
       </c>
       <c r="S30">
-        <v>0.1020189643278088</v>
+        <v>1.343877128308337E-05</v>
       </c>
       <c r="T30">
-        <v>0.1692729296585702</v>
+        <v>2.984639587949448E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,418 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.40508</v>
+        <v>0.2245723333333334</v>
       </c>
       <c r="H31">
-        <v>70.21523999999999</v>
+        <v>0.6737170000000001</v>
       </c>
       <c r="I31">
-        <v>0.2986446244109878</v>
+        <v>0.004670955940882942</v>
       </c>
       <c r="J31">
-        <v>0.3883182844543407</v>
+        <v>0.006950677577500422</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1451576666666667</v>
+        <v>0.018107</v>
       </c>
       <c r="N31">
-        <v>0.435473</v>
+        <v>0.054321</v>
       </c>
       <c r="O31">
-        <v>0.001536051038292467</v>
+        <v>0.0002086195879095469</v>
       </c>
       <c r="P31">
-        <v>0.001960103969280192</v>
+        <v>0.000311362311826733</v>
       </c>
       <c r="Q31">
-        <v>3.397426800946666</v>
+        <v>0.004066331239666668</v>
       </c>
       <c r="R31">
-        <v>30.57684120852</v>
+        <v>0.03659698115700001</v>
       </c>
       <c r="S31">
-        <v>0.0004587333854069617</v>
+        <v>9.744529035306491E-07</v>
       </c>
       <c r="T31">
-        <v>0.000761144210703028</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.3193563333333334</v>
-      </c>
-      <c r="H32">
-        <v>0.9580690000000001</v>
-      </c>
-      <c r="I32">
-        <v>0.004074929554678026</v>
-      </c>
-      <c r="J32">
-        <v>0.005298503721825715</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>33.0547845</v>
-      </c>
-      <c r="N32">
-        <v>66.10956899999999</v>
-      </c>
-      <c r="O32">
-        <v>0.349784046669429</v>
-      </c>
-      <c r="P32">
-        <v>0.2975652419422162</v>
-      </c>
-      <c r="Q32">
-        <v>10.5562547770435</v>
-      </c>
-      <c r="R32">
-        <v>63.337528662261</v>
-      </c>
-      <c r="S32">
-        <v>0.001425345349528134</v>
-      </c>
-      <c r="T32">
-        <v>0.001576650541916802</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.3193563333333334</v>
-      </c>
-      <c r="H33">
-        <v>0.9580690000000001</v>
-      </c>
-      <c r="I33">
-        <v>0.004074929554678026</v>
-      </c>
-      <c r="J33">
-        <v>0.005298503721825715</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.6058403333333333</v>
-      </c>
-      <c r="N33">
-        <v>1.817521</v>
-      </c>
-      <c r="O33">
-        <v>0.00641097156234339</v>
-      </c>
-      <c r="P33">
-        <v>0.008180828952311864</v>
-      </c>
-      <c r="Q33">
-        <v>0.1934789474387778</v>
-      </c>
-      <c r="R33">
-        <v>1.741310526949</v>
-      </c>
-      <c r="S33">
-        <v>2.612425749359344E-05</v>
-      </c>
-      <c r="T33">
-        <v>4.334615265144398E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.3193563333333334</v>
-      </c>
-      <c r="H34">
-        <v>0.9580690000000001</v>
-      </c>
-      <c r="I34">
-        <v>0.004074929554678026</v>
-      </c>
-      <c r="J34">
-        <v>0.005298503721825715</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.1342126666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.402638</v>
-      </c>
-      <c r="O34">
-        <v>0.001420231605532381</v>
-      </c>
-      <c r="P34">
-        <v>0.001812310618529824</v>
-      </c>
-      <c r="Q34">
-        <v>0.04286166511355556</v>
-      </c>
-      <c r="R34">
-        <v>0.385754986022</v>
-      </c>
-      <c r="S34">
-        <v>5.787343743871723E-06</v>
-      </c>
-      <c r="T34">
-        <v>9.602534557384535E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.3193563333333334</v>
-      </c>
-      <c r="H35">
-        <v>0.9580690000000001</v>
-      </c>
-      <c r="I35">
-        <v>0.004074929554678026</v>
-      </c>
-      <c r="J35">
-        <v>0.005298503721825715</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>28.278546</v>
-      </c>
-      <c r="N35">
-        <v>56.557092</v>
-      </c>
-      <c r="O35">
-        <v>0.2992421340338066</v>
-      </c>
-      <c r="P35">
-        <v>0.2545686656122079</v>
-      </c>
-      <c r="Q35">
-        <v>9.030932762558001</v>
-      </c>
-      <c r="R35">
-        <v>54.185596575348</v>
-      </c>
-      <c r="S35">
-        <v>0.001219390615979282</v>
-      </c>
-      <c r="T35">
-        <v>0.001348833022206489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.3193563333333334</v>
-      </c>
-      <c r="H36">
-        <v>0.9580690000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.004074929554678026</v>
-      </c>
-      <c r="J36">
-        <v>0.005298503721825715</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>32.282008</v>
-      </c>
-      <c r="N36">
-        <v>96.84602400000001</v>
-      </c>
-      <c r="O36">
-        <v>0.3416065650905962</v>
-      </c>
-      <c r="P36">
-        <v>0.435912848905454</v>
-      </c>
-      <c r="Q36">
-        <v>10.30946370751734</v>
-      </c>
-      <c r="R36">
-        <v>92.78517336765601</v>
-      </c>
-      <c r="S36">
-        <v>0.001392022688159713</v>
-      </c>
-      <c r="T36">
-        <v>0.002309685852317199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.3193563333333334</v>
-      </c>
-      <c r="H37">
-        <v>0.9580690000000001</v>
-      </c>
-      <c r="I37">
-        <v>0.004074929554678026</v>
-      </c>
-      <c r="J37">
-        <v>0.005298503721825715</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.1451576666666667</v>
-      </c>
-      <c r="N37">
-        <v>0.435473</v>
-      </c>
-      <c r="O37">
-        <v>0.001536051038292467</v>
-      </c>
-      <c r="P37">
-        <v>0.001960103969280192</v>
-      </c>
-      <c r="Q37">
-        <v>0.04635702018188889</v>
-      </c>
-      <c r="R37">
-        <v>0.4172131816370001</v>
-      </c>
-      <c r="S37">
-        <v>6.259299773431843E-06</v>
-      </c>
-      <c r="T37">
-        <v>1.038561817639645E-05</v>
+        <v>2.164179039292767E-06</v>
       </c>
     </row>
   </sheetData>
